--- a/data/input/employee_absence_data_19.xlsx
+++ b/data/input/employee_absence_data_19.xlsx
@@ -464,132 +464,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62877</v>
+        <v>28834</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isabella Pimenta</t>
+          <t>Sr. João Vitor Camargo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45101</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>5086.27</v>
+        <v>9270.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6740</v>
+        <v>94421</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pietra Silveira</t>
+          <t>Aurora Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45099</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>5387.22</v>
+        <v>7347.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>380</v>
+        <v>21118</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lorenzo Aragão</t>
+          <t>Dr. Ravi Lucca Mendes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>5215.2</v>
+        <v>4523.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>271</v>
+        <v>8913</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luana Freitas</t>
+          <t>Ana Liz Macedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45089</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>6187.41</v>
+        <v>4555.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16560</v>
+        <v>21337</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Cecília Ribeiro</t>
+          <t>Dr. Luiz Otávio Sá</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,85 +598,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>3031.32</v>
+        <v>8911.299999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45052</v>
+        <v>32264</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Raquel Freitas</t>
+          <t>Sr. Samuel Sales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45104</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>12271.58</v>
+        <v>2935.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41447</v>
+        <v>6229</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Flor Almeida</t>
+          <t>Laura das Neves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>3150.33</v>
+        <v>8186.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23154</v>
+        <v>69262</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Heitor Cavalcanti</t>
+          <t>Erick Garcia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,51 +685,51 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45103</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>8599.799999999999</v>
+        <v>8186.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9312</v>
+        <v>75690</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arthur Miguel Caldeira</t>
+          <t>Dr. Noah Barros</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45085</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>5017.31</v>
+        <v>6039.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8991</v>
+        <v>74867</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sofia Rocha</t>
+          <t>Bernardo Nascimento</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>10686.42</v>
+        <v>6813.51</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_19.xlsx
+++ b/data/input/employee_absence_data_19.xlsx
@@ -464,11 +464,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28834</v>
+        <v>83827</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. João Vitor Camargo</t>
+          <t>Ana Vitória Albuquerque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,26 +478,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>9270.57</v>
+        <v>4043.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94421</v>
+        <v>16436</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aurora Sales</t>
+          <t>Mirella das Neves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,55 +507,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45084</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>7347.95</v>
+        <v>2974.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21118</v>
+        <v>79120</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Ravi Lucca Mendes</t>
+          <t>Laura Novais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>4523.79</v>
+        <v>2682.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8913</v>
+        <v>89688</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Liz Macedo</t>
+          <t>Davi Lucca Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,191 +565,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45078</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>4555.55</v>
+        <v>2555.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21337</v>
+        <v>10219</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Luiz Otávio Sá</t>
+          <t>Sr. João Camargo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>8911.299999999999</v>
+        <v>2889.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32264</v>
+        <v>50938</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Samuel Sales</t>
+          <t>Ravy Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>2935.28</v>
+        <v>6631.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6229</v>
+        <v>68766</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laura das Neves</t>
+          <t>Renan da Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45098</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>8186.67</v>
+        <v>4610.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69262</v>
+        <v>46567</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Erick Garcia</t>
+          <t>Melissa Sampaio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>8186.37</v>
+        <v>4489.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75690</v>
+        <v>3962</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Noah Barros</t>
+          <t>Fernando Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45095</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>6039.31</v>
+        <v>7191.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74867</v>
+        <v>22791</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bernardo Nascimento</t>
+          <t>Isaque Brito</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45100</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>6813.51</v>
+        <v>7248.34</v>
       </c>
     </row>
   </sheetData>
